--- a/xlsx/FR/vote_voters_FR.xlsx
+++ b/xlsx/FR/vote_voters_FR.xlsx
@@ -12,30 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">In 2020, voted for (voters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippe Poutou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Dupont-Aignan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathalie Arthaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marine Le Pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Lassalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Luc Mélenchon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">François Fillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">François Asselineau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel Macron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benoît Hamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNR</t>
   </si>
 </sst>
 </file>
@@ -374,67 +389,93 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.00422853894311557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0174040344292112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.00107384144007599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.212458513184097</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.00997598426099096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B7" t="n">
+        <v>0.117843639901511</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.288941706819306</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0154605039652031</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.161309364368233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.104857690627764</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.27988367465909</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/vote_voters_FR.xlsx
+++ b/xlsx/FR/vote_voters_FR.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">In 2020, voted for (voters)</t>
+    <t xml:space="preserve">Vote in last election (voters)</t>
   </si>
   <si>
     <t xml:space="preserve">Philippe Poutou</t>
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00422853894311557</v>
+        <v>0.00515151802751741</v>
       </c>
     </row>
     <row r="3">
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0174040344292112</v>
+        <v>0.0119041773669974</v>
       </c>
     </row>
     <row r="4">
@@ -411,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00107384144007599</v>
+        <v>0.000651439220833372</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.212458513184097</v>
+        <v>0.255615509080236</v>
       </c>
     </row>
     <row r="6">
@@ -427,7 +427,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00997598426099096</v>
+        <v>0.0111752994629334</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117843639901511</v>
+        <v>0.107540577177289</v>
       </c>
     </row>
     <row r="8">
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.288941706819306</v>
+        <v>0.323216534309675</v>
       </c>
     </row>
     <row r="9">
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0154605039652031</v>
+        <v>0.0157749668718331</v>
       </c>
     </row>
     <row r="10">
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.161309364368233</v>
+        <v>0.152996724229894</v>
       </c>
     </row>
     <row r="11">
@@ -467,7 +467,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.104857690627764</v>
+        <v>0.115973254252791</v>
       </c>
     </row>
     <row r="12">
@@ -475,7 +475,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.27988367465909</v>
+        <v>0.401226349203585</v>
       </c>
     </row>
   </sheetData>
